--- a/Logboeken/Volckaert_Glenn.xlsx
+++ b/Logboeken/Volckaert_Glenn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\School\Toegepaste Informatica\SoftwareDevelopmentProject\Rummikub-main\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rummikub\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4BF4D-F9E9-4D95-9F4D-1BE468935302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC19720F-7CF9-42DA-822E-38D4EF85EE3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Logboek</t>
+  </si>
+  <si>
+    <t>15/02/2021</t>
+  </si>
+  <si>
+    <t>VP online project en DB aanmaken</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,7 +483,7 @@
   <dimension ref="C3:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,14 +575,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
@@ -860,7 +874,7 @@
       </c>
       <c r="E36">
         <f>SUM(E5:E32)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
